--- a/results/Auto/genero-m1_es_adjetivootros-m2.xlsx
+++ b/results/Auto/genero-m1_es_adjetivootros-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001180210616439581</v>
+        <v>2.427890666290011e-10</v>
       </c>
       <c r="E2" t="n">
         <v>0.0001010582345770672</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002659709891304374</v>
+        <v>9.590946925541743e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0.0007175093633122742</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006268361117690802</v>
+        <v>7.574429278234263e-11</v>
       </c>
       <c r="E4" t="n">
         <v>0.0002083122526528314</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007506188005208969</v>
+        <v>1.152284045957686e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.0005006726132705808</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003269068198278546</v>
+        <v>8.784431848596341e-09</v>
       </c>
       <c r="E6" t="n">
         <v>0.001514895004220307</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003709014970809221</v>
+        <v>3.692814232181263e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.002858801279217005</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001343114650808275</v>
+        <v>2.874827598198237e-10</v>
       </c>
       <c r="E8" t="n">
         <v>0.0001205054140882567</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01172218751162291</v>
+        <v>6.890493153832722e-08</v>
       </c>
       <c r="E9" t="n">
         <v>0.0004075285396538675</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01479082461446524</v>
+        <v>3.602919207423838e-08</v>
       </c>
       <c r="E10" t="n">
         <v>0.001101284055039287</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00216789566911757</v>
+        <v>6.801463570127453e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.004997188225388527</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005403906106948853</v>
+        <v>8.039156895733868e-09</v>
       </c>
       <c r="E12" t="n">
         <v>0.0006363753927871585</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006399407051503658</v>
+        <v>2.026619289052789e-10</v>
       </c>
       <c r="E13" t="n">
         <v>0.000881490355823189</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005296084564179182</v>
+        <v>1.126287418884431e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.0001675842650001869</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002358427504077554</v>
+        <v>6.147324871363935e-09</v>
       </c>
       <c r="E15" t="n">
         <v>0.0009034402901306748</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001506805536337197</v>
+        <v>2.979752666831814e-09</v>
       </c>
       <c r="E16" t="n">
         <v>7.264403393492103e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007400828879326582</v>
+        <v>2.958173261902175e-09</v>
       </c>
       <c r="E17" t="n">
         <v>0.0001635721564525738</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005038258153945208</v>
+        <v>1.036539076793019e-09</v>
       </c>
       <c r="E18" t="n">
         <v>0.0008241101168096066</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>6.347084126900882e-05</v>
+        <v>1.229408463920834e-09</v>
       </c>
       <c r="E19" t="n">
         <v>0.001022255513817072</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01310416776686907</v>
+        <v>1.699191543025336e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.0002952840004581958</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0003158178296871483</v>
+        <v>7.743042651497944e-09</v>
       </c>
       <c r="E21" t="n">
         <v>3.096229920629412e-05</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002491157210897654</v>
+        <v>2.269489873807373e-10</v>
       </c>
       <c r="E22" t="n">
         <v>0.0001315541449002922</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002462170319631696</v>
+        <v>8.122402306298682e-09</v>
       </c>
       <c r="E23" t="n">
         <v>0.0003056502318941057</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002005066955462098</v>
+        <v>2.524761510969142e-09</v>
       </c>
       <c r="E24" t="n">
         <v>0.00308696087449789</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.009535904042422771</v>
+        <v>1.190093179559426e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.001014822046272457</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002374121453613043</v>
+        <v>9.562490355108366e-09</v>
       </c>
       <c r="E26" t="n">
         <v>3.365986412973143e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004055955447256565</v>
+        <v>8.494490111310427e-10</v>
       </c>
       <c r="E27" t="n">
         <v>0.0002396212075836957</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0459447093307972</v>
+        <v>5.785641965516675e-10</v>
       </c>
       <c r="E28" t="n">
         <v>0.006536880508065224</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004973459057509899</v>
+        <v>9.306865500491313e-09</v>
       </c>
       <c r="E29" t="n">
         <v>0.0002458025410305709</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01465707086026669</v>
+        <v>2.025945455841338e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.001850842963904142</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000957650423515588</v>
+        <v>4.967255495813561e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.003978463355451822</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004885726142674685</v>
+        <v>2.026363432605649e-08</v>
       </c>
       <c r="E32" t="n">
         <v>2.031957592407707e-05</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03561937808990479</v>
+        <v>6.154480924891459e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.0005520542035810649</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02820386737585068</v>
+        <v>5.820131931955075e-09</v>
       </c>
       <c r="E34" t="n">
         <v>0.0009560601320117712</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09945529699325562</v>
+        <v>4.682719545456848e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.002220530062913895</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02250226773321629</v>
+        <v>4.700560385373365e-09</v>
       </c>
       <c r="E36" t="n">
         <v>0.0002095514355460182</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005871950648725033</v>
+        <v>1.978270880442778e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.001838879426941276</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005343743599951267</v>
+        <v>4.771336215014799e-09</v>
       </c>
       <c r="E38" t="n">
         <v>0.0001971809833776206</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01130741462111473</v>
+        <v>1.788647979727997e-10</v>
       </c>
       <c r="E39" t="n">
         <v>0.001055409549735487</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009071200154721737</v>
+        <v>7.83015596805825e-10</v>
       </c>
       <c r="E40" t="n">
         <v>5.183778921491466e-05</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001204050262458622</v>
+        <v>7.15728032396612e-11</v>
       </c>
       <c r="E41" t="n">
         <v>0.0006329644820652902</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006623748224228621</v>
+        <v>1.826072626442965e-08</v>
       </c>
       <c r="E42" t="n">
         <v>0.001146283582784235</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003647568635642529</v>
+        <v>1.356531553753371e-09</v>
       </c>
       <c r="E43" t="n">
         <v>0.0003921761817764491</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00375241250731051</v>
+        <v>3.399938330872487e-09</v>
       </c>
       <c r="E44" t="n">
         <v>0.0008578123524785042</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01050525531172752</v>
+        <v>6.283067122136998e-11</v>
       </c>
       <c r="E45" t="n">
         <v>0.000182040806976147</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03983149304986</v>
+        <v>4.239254725035835e-09</v>
       </c>
       <c r="E46" t="n">
         <v>0.00185040570795536</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001784693449735641</v>
+        <v>2.53585537984824e-11</v>
       </c>
       <c r="E47" t="n">
         <v>1.491233660999569e-06</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001940695918165147</v>
+        <v>1.164212948268073e-09</v>
       </c>
       <c r="E48" t="n">
         <v>3.401836511329748e-05</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005148447118699551</v>
+        <v>2.539397581102776e-09</v>
       </c>
       <c r="E49" t="n">
         <v>5.785597022622824e-05</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02503843978047371</v>
+        <v>4.533989184096754e-09</v>
       </c>
       <c r="E50" t="n">
         <v>0.001042575924657285</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01184946391731501</v>
+        <v>1.466348598100353e-09</v>
       </c>
       <c r="E51" t="n">
         <v>0.0001217224780702963</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001203671214170754</v>
+        <v>6.448330758246357e-09</v>
       </c>
       <c r="E52" t="n">
         <v>0.0001955540792550892</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02134629152715206</v>
+        <v>4.96417618123246e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.0003013683308381587</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002251096535474062</v>
+        <v>1.515552661146558e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.0008664338383823633</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0005152062512934208</v>
+        <v>1.235027968782276e-09</v>
       </c>
       <c r="E55" t="n">
         <v>5.253726340015419e-05</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0699145570397377</v>
+        <v>4.128025477001529e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.008874070830643177</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>4.398371311253868e-05</v>
+        <v>1.129201315785977e-10</v>
       </c>
       <c r="E57" t="n">
         <v>4.951202754455153e-06</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>9.678734204499051e-05</v>
+        <v>1.089552981170527e-08</v>
       </c>
       <c r="E58" t="n">
         <v>0.001149106421507895</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01851572096347809</v>
+        <v>8.44444691949775e-09</v>
       </c>
       <c r="E59" t="n">
         <v>0.0002222606271971017</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01050896290689707</v>
+        <v>1.513748060233411e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.004286739509552717</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.002187613397836685</v>
+        <v>2.577650803914366e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.0007846287917345762</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0006720406818203628</v>
+        <v>2.184940228744381e-09</v>
       </c>
       <c r="E62" t="n">
         <v>0.0008238923619501293</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02061210386455059</v>
+        <v>3.743996668248428e-09</v>
       </c>
       <c r="E63" t="n">
         <v>0.001090507721528411</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0420612245798111</v>
+        <v>2.633128914908411e-08</v>
       </c>
       <c r="E64" t="n">
         <v>0.01718261651694775</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.009570079855620861</v>
+        <v>2.840489510269606e-10</v>
       </c>
       <c r="E65" t="n">
         <v>3.594823647290468e-05</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06219058856368065</v>
+        <v>1.495685708619021e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.001000058953650296</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0006427076878026128</v>
+        <v>1.912389135938497e-09</v>
       </c>
       <c r="E67" t="n">
         <v>4.782008545589633e-06</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0001650701742619276</v>
+        <v>1.723167580847118e-10</v>
       </c>
       <c r="E68" t="n">
         <v>0.0004078310157638043</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06651405245065689</v>
+        <v>1.012142014644724e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0007441206253133714</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003889516228809953</v>
+        <v>1.094565060810737e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0004991106688976288</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>1.188036003441084e-05</v>
+        <v>1.015468416819265e-12</v>
       </c>
       <c r="E71" t="n">
         <v>0.0001258822885574773</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006358824670314789</v>
+        <v>5.88193458384012e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0002036462974501774</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003114272141829133</v>
+        <v>2.99745011034247e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.004143533762544394</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001202649786137044</v>
+        <v>3.095034784017514e-10</v>
       </c>
       <c r="E74" t="n">
         <v>0.0002152503875549883</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001270628999918699</v>
+        <v>4.361139921416068e-11</v>
       </c>
       <c r="E75" t="n">
         <v>3.5189586924389e-05</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01070818770676851</v>
+        <v>1.13704015092253e-08</v>
       </c>
       <c r="E76" t="n">
         <v>0.001493574120104313</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01999326981604099</v>
+        <v>9.495546571258728e-09</v>
       </c>
       <c r="E77" t="n">
         <v>2.085281812469475e-05</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002005066955462098</v>
+        <v>2.524761510969142e-09</v>
       </c>
       <c r="E78" t="n">
         <v>0.00308696087449789</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00118524266872555</v>
+        <v>2.07282346842419e-09</v>
       </c>
       <c r="E79" t="n">
         <v>0.0004213055071886629</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0976417139172554</v>
+        <v>6.557500320525378e-09</v>
       </c>
       <c r="E80" t="n">
         <v>0.005063594784587622</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004976844880729914</v>
+        <v>2.123322490055202e-10</v>
       </c>
       <c r="E81" t="n">
         <v>0.001146551105193794</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.008157149888575077</v>
+        <v>3.184191399441261e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.002510890830308199</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008510858751833439</v>
+        <v>1.747053279821387e-09</v>
       </c>
       <c r="E83" t="n">
         <v>0.004906517453491688</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.004055955447256565</v>
+        <v>8.494490111310427e-10</v>
       </c>
       <c r="E84" t="n">
         <v>0.0002396212075836957</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01365501154214144</v>
+        <v>9.676505152711457e-10</v>
       </c>
       <c r="E85" t="n">
         <v>0.0004715392715297639</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>7.600160461151972e-05</v>
+        <v>7.829447090657027e-10</v>
       </c>
       <c r="E86" t="n">
         <v>6.73298518449883e-06</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04099584743380547</v>
+        <v>1.070882937881379e-09</v>
       </c>
       <c r="E87" t="n">
         <v>4.419708784553222e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001260265940800309</v>
+        <v>2.357217283588398e-07</v>
       </c>
       <c r="E88" t="n">
         <v>0.0002049217437161133</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01120623666793108</v>
+        <v>1.33491058207369e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.0002685115614440292</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.09664611518383026</v>
+        <v>3.131882753137916e-09</v>
       </c>
       <c r="E90" t="n">
         <v>0.00109001446980983</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0008285740623250604</v>
+        <v>6.367703253573609e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0002789849822875112</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002605655929073691</v>
+        <v>1.779767722087655e-10</v>
       </c>
       <c r="E92" t="n">
         <v>7.781814929330721e-06</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.009289458394050598</v>
+        <v>1.848882158483889e-09</v>
       </c>
       <c r="E93" t="n">
         <v>0.0002481775009073317</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0008835510234348476</v>
+        <v>6.785715545021276e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.0007935860776342452</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001389045792166144</v>
+        <v>2.226228784651951e-10</v>
       </c>
       <c r="E95" t="n">
         <v>2.591941847640555e-05</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001241007703356445</v>
+        <v>1.623926215721383e-09</v>
       </c>
       <c r="E96" t="n">
         <v>0.0002045037981588393</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.007176473736763</v>
+        <v>1.504840557720044e-10</v>
       </c>
       <c r="E97" t="n">
         <v>0.0005170596996322274</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.008076940663158894</v>
+        <v>6.369690996876898e-09</v>
       </c>
       <c r="E98" t="n">
         <v>0.001321791671216488</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001420040032826364</v>
+        <v>1.285119011207314e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.002213780302554369</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0004712511727120727</v>
+        <v>1.807611837989498e-09</v>
       </c>
       <c r="E100" t="n">
         <v>0.0002749812847469002</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0009629991836845875</v>
+        <v>3.08945896643209e-10</v>
       </c>
       <c r="E101" t="n">
         <v>0.001214793999679387</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
